--- a/DPT_INTERVIEW_PREP.xlsx
+++ b/DPT_INTERVIEW_PREP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="406">
   <si>
     <t>SNO</t>
   </si>
@@ -1234,6 +1234,9 @@
   </si>
   <si>
     <t>DAYS NO.</t>
+  </si>
+  <si>
+    <t>UDEMY - TERRAFORM-KD2 - COMPLETE-TODAY</t>
   </si>
 </sst>
 </file>
@@ -1539,9 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1550,6 +1550,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3184,10 +3187,10 @@
       <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -6633,7 +6636,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6718,7 +6721,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <v>63</v>
       </c>
       <c r="B10" s="29">
@@ -6736,7 +6739,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>62</v>
       </c>
       <c r="B11" s="29">
@@ -6754,7 +6757,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>61</v>
       </c>
       <c r="B12" s="29">
@@ -6772,7 +6775,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <v>60</v>
       </c>
       <c r="B13" s="29">
@@ -6790,7 +6793,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="36">
         <v>59</v>
       </c>
       <c r="B14" s="29">
@@ -6808,7 +6811,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>58</v>
       </c>
       <c r="B15" s="27">
@@ -6826,7 +6829,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>57</v>
       </c>
       <c r="B16" s="27">
@@ -6844,7 +6847,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>56</v>
       </c>
       <c r="B17" s="29">
@@ -6864,7 +6867,7 @@
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <v>55</v>
       </c>
       <c r="B18" s="29">
@@ -6882,7 +6885,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <v>54</v>
       </c>
       <c r="B19" s="29">
@@ -6900,7 +6903,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <v>53</v>
       </c>
       <c r="B20" s="29">
@@ -6910,7 +6913,7 @@
         <v>142</v>
       </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>401</v>
       </c>
       <c r="F20" t="s">
@@ -6932,7 +6935,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
       <c r="F21" t="s">
         <v>402</v>

--- a/DPT_INTERVIEW_PREP.xlsx
+++ b/DPT_INTERVIEW_PREP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="408">
   <si>
     <t>SNO</t>
   </si>
@@ -1237,6 +1237,12 @@
   </si>
   <si>
     <t>UDEMY - TERRAFORM-KD2 - COMPLETE-TODAY</t>
+  </si>
+  <si>
+    <t>STUDY THE FULL DEVOPS DAY TO DAY RESPONSIBILITIES EDUREKA YT VIDEO. VERY HELP FULL FOR INTERVIEW.</t>
+  </si>
+  <si>
+    <t>WHILE PREPARING FOR TERRAFORM, PREPARE THE TERRAFORM FULL PROJ &amp; TERRAFORM FULL PROJ WITH ASG. MUST BE ABLE TO TELL THE INTERVIEWER, HE MAY ASK. MAKE SURE THE CODE IS RUNNIG, THEY MAY ASK TIO RUN THE CODE. GET GOOD READING FROM SECTION 13 TRF ON AWS.</t>
   </si>
 </sst>
 </file>
@@ -6635,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6645,7 +6651,7 @@
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>300</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>301</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>302</v>
       </c>
@@ -6669,7 +6675,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>303</v>
       </c>
@@ -6677,7 +6683,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>304</v>
       </c>
@@ -6685,25 +6691,31 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>305</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O6" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K8" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>404</v>
       </c>
@@ -6720,7 +6732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>63</v>
       </c>
@@ -6738,7 +6750,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>62</v>
       </c>
@@ -6756,7 +6768,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>61</v>
       </c>
@@ -6774,7 +6786,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>60</v>
       </c>
@@ -6792,7 +6804,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>59</v>
       </c>
@@ -6810,7 +6822,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>58</v>
       </c>
@@ -6828,7 +6840,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>57</v>
       </c>
@@ -6919,9 +6931,6 @@
       <c r="F20" t="s">
         <v>386</v>
       </c>
-      <c r="Q20" s="33" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -6940,9 +6949,6 @@
       <c r="F21" t="s">
         <v>402</v>
       </c>
-      <c r="Q21" s="33" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -7747,6 +7753,9 @@
       <c r="E65" s="9" t="s">
         <v>335</v>
       </c>
+      <c r="F65" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -7761,6 +7770,9 @@
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
         <v>335</v>
+      </c>
+      <c r="F66" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP.xlsx
+++ b/DPT_INTERVIEW_PREP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="409">
   <si>
     <t>SNO</t>
   </si>
@@ -1243,6 +1243,9 @@
   </si>
   <si>
     <t>WHILE PREPARING FOR TERRAFORM, PREPARE THE TERRAFORM FULL PROJ &amp; TERRAFORM FULL PROJ WITH ASG. MUST BE ABLE TO TELL THE INTERVIEWER, HE MAY ASK. MAKE SURE THE CODE IS RUNNIG, THEY MAY ASK TIO RUN THE CODE. GET GOOD READING FROM SECTION 13 TRF ON AWS.</t>
+  </si>
+  <si>
+    <t>REAL DEVOPS FLOW STARTS</t>
   </si>
 </sst>
 </file>
@@ -6642,7 +6645,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,17 +6936,17 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="37">
         <v>52</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="27">
         <v>44548</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>405</v>
       </c>
       <c r="F21" t="s">
@@ -7017,6 +7020,9 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
         <v>395</v>
+      </c>
+      <c r="F25" t="s">
+        <v>408</v>
       </c>
       <c r="P25">
         <v>2</v>

--- a/DPT_INTERVIEW_PREP.xlsx
+++ b/DPT_INTERVIEW_PREP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="418">
   <si>
     <t>SNO</t>
   </si>
@@ -1246,6 +1246,33 @@
   </si>
   <si>
     <t>REAL DEVOPS FLOW STARTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED TO DO TERRAFORM IAC DEVOPS VIDEO COMPLETELY. </t>
+  </si>
+  <si>
+    <t>TO-DO</t>
+  </si>
+  <si>
+    <t>HONEST REVIEW SO FAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO FINISHED AWS, LINUX, TERRAFORM. AS OF NOW IT WAS AVERAGE PERFORMANCE. </t>
+  </si>
+  <si>
+    <t>NEED TO WORK ON THEM AGAIN.</t>
+  </si>
+  <si>
+    <t>STARTING NOW GO THROUGH AWS CLOUD FORMATION AND STUDY HEARTFULLY. I AM NOT DOING ANY FARE TO ANYONE. DON'T TAKE GRANTED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO WATCHING YT AND HOUSE PLANS. </t>
+  </si>
+  <si>
+    <t>UDEMY KD-CLOUDFORMATION, IAC DEVOPS ON TRF &amp; CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATCHING THE VIDEOS AND LEARNING, YAML CONCEPTS. </t>
   </si>
 </sst>
 </file>
@@ -6642,10 +6669,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6967,6 +6994,9 @@
       <c r="E22" s="9" t="s">
         <v>339</v>
       </c>
+      <c r="F22" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -6998,7 +7028,10 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>403</v>
+        <v>416</v>
+      </c>
+      <c r="F24" t="s">
+        <v>340</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -7109,7 +7142,7 @@
         <v>317</v>
       </c>
       <c r="F29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P29">
         <v>6</v>
@@ -7174,6 +7207,9 @@
       <c r="E32" s="9" t="s">
         <v>322</v>
       </c>
+      <c r="F32" t="s">
+        <v>342</v>
+      </c>
       <c r="P32">
         <v>9</v>
       </c>
@@ -7216,9 +7252,6 @@
       <c r="E34" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="F34" t="s">
-        <v>341</v>
-      </c>
       <c r="P34">
         <v>11</v>
       </c>
@@ -7282,9 +7315,6 @@
       <c r="E37" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F37" t="s">
-        <v>342</v>
-      </c>
       <c r="P37">
         <v>14</v>
       </c>
@@ -7390,6 +7420,9 @@
       <c r="E42" s="23" t="s">
         <v>326</v>
       </c>
+      <c r="F42" t="s">
+        <v>343</v>
+      </c>
       <c r="P42">
         <v>19</v>
       </c>
@@ -7447,6 +7480,9 @@
       <c r="E45" s="23" t="s">
         <v>332</v>
       </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -7462,9 +7498,6 @@
       <c r="E46" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F46" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -7525,9 +7558,6 @@
       <c r="E50" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F50" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -7744,6 +7774,9 @@
       <c r="E64" s="9" t="s">
         <v>363</v>
       </c>
+      <c r="F64" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -7872,6 +7905,51 @@
       </c>
       <c r="F72" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP.xlsx
+++ b/DPT_INTERVIEW_PREP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -1230,9 +1230,6 @@
     <t>IN KD2, ALL MODULES, DOES NOT CREATE ANY TERRAFORM RESOURCES. CAN FINISH EARLY, NO PRACTICE NEEDED.</t>
   </si>
   <si>
-    <t>UDEMY KD-CLOUDFORMATION</t>
-  </si>
-  <si>
     <t>DAYS NO.</t>
   </si>
   <si>
@@ -1273,6 +1270,9 @@
   </si>
   <si>
     <t xml:space="preserve">WATCHING THE VIDEOS AND LEARNING, YAML CONCEPTS. </t>
+  </si>
+  <si>
+    <t>IAC DEVOPS ON TRF &amp; CF</t>
   </si>
 </sst>
 </file>
@@ -6672,7 +6672,7 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>226</v>
@@ -6974,28 +6974,28 @@
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F21" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="37">
         <v>51</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="27">
         <v>44549</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
         <v>339</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="33" t="s">
         <v>387</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
         <v>340</v>
@@ -7055,7 +7055,7 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -7775,7 +7775,7 @@
         <v>363</v>
       </c>
       <c r="F64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7793,7 +7793,7 @@
         <v>335</v>
       </c>
       <c r="F65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7811,7 +7811,7 @@
         <v>335</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -7909,47 +7909,47 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP.xlsx
+++ b/DPT_INTERVIEW_PREP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="418">
   <si>
     <t>SNO</t>
   </si>
@@ -1248,31 +1248,31 @@
     <t xml:space="preserve">NEED TO DO TERRAFORM IAC DEVOPS VIDEO COMPLETELY. </t>
   </si>
   <si>
-    <t>TO-DO</t>
-  </si>
-  <si>
-    <t>HONEST REVIEW SO FAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO FINISHED AWS, LINUX, TERRAFORM. AS OF NOW IT WAS AVERAGE PERFORMANCE. </t>
-  </si>
-  <si>
-    <t>NEED TO WORK ON THEM AGAIN.</t>
-  </si>
-  <si>
-    <t>STARTING NOW GO THROUGH AWS CLOUD FORMATION AND STUDY HEARTFULLY. I AM NOT DOING ANY FARE TO ANYONE. DON'T TAKE GRANTED.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO WATCHING YT AND HOUSE PLANS. </t>
-  </si>
-  <si>
     <t>UDEMY KD-CLOUDFORMATION, IAC DEVOPS ON TRF &amp; CF</t>
   </si>
   <si>
     <t xml:space="preserve">WATCHING THE VIDEOS AND LEARNING, YAML CONCEPTS. </t>
   </si>
   <si>
-    <t>IAC DEVOPS ON TRF &amp; CF</t>
+    <t>TO-DO/INTERVIEW PREPERATION.</t>
+  </si>
+  <si>
+    <t>BE EXPERT WITH THE FILES THAT I AM UPLOADING IN THE GITHUB.</t>
+  </si>
+  <si>
+    <t>NEED TO DO TERRAFORM IAC DEVOPS VIDEO COMPLETELY &amp; AWS CLOUDFORMATION. READ THEM CAREFULLY, UNDERSTAND THE PROCESS.</t>
+  </si>
+  <si>
+    <t>IAC DEVOPS ON TRF &amp; CF, RESUME UPDATE, REVISION</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISHED WITH AWS-CLOUDFORMATION VIDEOS. AS OF NOW CONCENTRATING ON THE AWS DEVOPS TOOLS. BUT THE PROCESS IS LITTLE BIT DIFFERENT. SO NOT DOING. JUST WATCHING VIDEOS. </t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,9 +1573,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,7 +1894,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,6 +2245,12 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>415</v>
+      </c>
+      <c r="N18">
+        <v>23</v>
+      </c>
       <c r="X18">
         <f>SUM(X1:X17)</f>
         <v>3904000</v>
@@ -2260,6 +2263,12 @@
       <c r="B19">
         <f>(B5-B17)</f>
         <v>72151.59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>416</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3223,10 +3232,10 @@
       <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -6669,1292 +6678,1290 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>301</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>303</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>307</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="M7" s="33" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="9" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="D9" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="F9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="G9" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="35">
         <v>63</v>
       </c>
-      <c r="B10" s="29">
+      <c r="D10" s="29">
         <v>44537</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="35">
         <v>62</v>
       </c>
-      <c r="B11" s="29">
+      <c r="D11" s="29">
         <v>44538</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="35">
         <v>61</v>
       </c>
-      <c r="B12" s="29">
+      <c r="D12" s="29">
         <v>44539</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="E12" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="35">
         <v>60</v>
       </c>
-      <c r="B13" s="29">
+      <c r="D13" s="29">
         <v>44540</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="E13" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="35">
         <v>59</v>
       </c>
-      <c r="B14" s="29">
+      <c r="D14" s="29">
         <v>44541</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="E14" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="36">
         <v>58</v>
       </c>
-      <c r="B15" s="27">
+      <c r="D15" s="27">
         <v>44542</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="E15" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="36">
         <v>57</v>
       </c>
-      <c r="B16" s="27">
+      <c r="D16" s="27">
         <v>44543</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="35">
         <v>56</v>
       </c>
-      <c r="B17" s="29">
+      <c r="D17" s="29">
         <v>44544</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>361</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="35">
         <v>55</v>
       </c>
-      <c r="B18" s="29">
+      <c r="D18" s="29">
         <v>44545</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="E18" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="35">
         <v>54</v>
       </c>
-      <c r="B19" s="29">
+      <c r="D19" s="29">
         <v>44546</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="35">
         <v>53</v>
       </c>
-      <c r="B20" s="29">
+      <c r="D20" s="29">
         <v>44547</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="E20" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="35" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="36">
         <v>52</v>
       </c>
-      <c r="B21" s="27">
+      <c r="D21" s="27">
         <v>44548</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="E21" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="36">
         <v>51</v>
       </c>
-      <c r="B22" s="27">
+      <c r="D22" s="27">
         <v>44549</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="F22" t="s">
-        <v>416</v>
+      <c r="H22" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="36">
         <v>50</v>
       </c>
-      <c r="B23" s="22">
+      <c r="D23" s="27">
         <v>44550</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q23" s="33" t="s">
-        <v>387</v>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="H23" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="2">
         <v>49</v>
       </c>
-      <c r="B24" s="22">
+      <c r="D24" s="22">
         <v>44551</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="H24" t="s">
         <v>340</v>
       </c>
-      <c r="P24">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="2">
+        <v>48</v>
+      </c>
+      <c r="D25" s="22">
+        <v>44552</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="2">
+        <v>47</v>
+      </c>
+      <c r="D26" s="22">
+        <v>44553</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>18</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="2">
+        <v>46</v>
+      </c>
+      <c r="D27" s="22">
+        <v>44554</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45</v>
+      </c>
+      <c r="D28" s="22">
+        <v>44555</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>20</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44</v>
+      </c>
+      <c r="D29" s="22">
+        <v>44556</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <v>43</v>
+      </c>
+      <c r="D30" s="22">
+        <v>44557</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="S30" s="33"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>42</v>
+      </c>
+      <c r="D31" s="22">
+        <v>44558</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="S31" s="33"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>41</v>
+      </c>
+      <c r="D32" s="22">
+        <v>44559</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" t="s">
+        <v>342</v>
+      </c>
+      <c r="S32" s="33"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="22">
+        <v>44560</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="S33" s="33"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>39</v>
+      </c>
+      <c r="D34" s="22">
+        <v>44561</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S34" s="33"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>38</v>
+      </c>
+      <c r="D35" s="22">
+        <v>44562</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S35" s="33"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="22">
+        <v>44563</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="S36" s="33"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="22">
+        <v>44564</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="S37" s="33"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>35</v>
+      </c>
+      <c r="D38" s="22">
+        <v>44565</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="S38" s="33"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>34</v>
+      </c>
+      <c r="D39" s="22">
+        <v>44566</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="S39" s="33"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>33</v>
+      </c>
+      <c r="D40" s="22">
+        <v>44567</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="S40" s="33"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>32</v>
+      </c>
+      <c r="D41" s="22">
+        <v>44568</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="S41" s="33"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>31</v>
+      </c>
+      <c r="D42" s="22">
+        <v>44569</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" t="s">
+        <v>343</v>
+      </c>
+      <c r="S42" s="33"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>30</v>
+      </c>
+      <c r="D43" s="22">
+        <v>44570</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="S43" s="33"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>29</v>
+      </c>
+      <c r="D44" s="22">
+        <v>44571</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>28</v>
+      </c>
+      <c r="D45" s="22">
+        <v>44572</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>27</v>
+      </c>
+      <c r="D46" s="22">
+        <v>44573</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>26</v>
+      </c>
+      <c r="D47" s="22">
+        <v>44574</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>25</v>
+      </c>
+      <c r="D48" s="22">
+        <v>44575</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>24</v>
+      </c>
+      <c r="D49" s="22">
+        <v>44576</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>23</v>
+      </c>
+      <c r="D50" s="22">
+        <v>44577</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>22</v>
+      </c>
+      <c r="D51" s="22">
+        <v>44578</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>21</v>
+      </c>
+      <c r="D52" s="22">
+        <v>44579</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>20</v>
+      </c>
+      <c r="D53" s="22">
+        <v>44580</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>19</v>
+      </c>
+      <c r="D54" s="22">
+        <v>44581</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <v>18</v>
+      </c>
+      <c r="D55" s="22">
+        <v>44582</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>17</v>
+      </c>
+      <c r="D56" s="22">
+        <v>44583</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>16</v>
+      </c>
+      <c r="D57" s="22">
+        <v>44584</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22">
+        <v>44585</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" s="22">
+        <v>44586</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" s="22">
+        <v>44587</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>12</v>
+      </c>
+      <c r="D61" s="22">
+        <v>44588</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>11</v>
+      </c>
+      <c r="D62" s="22">
+        <v>44589</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
+      <c r="D63" s="22">
+        <v>44590</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="22">
+        <v>44591</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>8</v>
+      </c>
+      <c r="D65" s="22">
+        <v>44592</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+      <c r="D66" s="22">
+        <v>44593</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H66" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="22">
+        <v>44594</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="22">
+        <v>44595</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="22">
+        <v>44596</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="22">
+        <v>44597</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="22">
+        <v>44598</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="Q24" s="34" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>48</v>
-      </c>
-      <c r="B25" s="22">
-        <v>44552</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" t="s">
-        <v>407</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>47</v>
-      </c>
-      <c r="B26" s="22">
-        <v>44553</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>46</v>
-      </c>
-      <c r="B27" s="22">
-        <v>44554</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>45</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44555</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="P28">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="33" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44</v>
-      </c>
-      <c r="B29" s="22">
-        <v>44556</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F29" t="s">
-        <v>341</v>
-      </c>
-      <c r="P29">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43</v>
-      </c>
-      <c r="B30" s="22">
-        <v>44557</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="D72" s="22">
+        <v>44599</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="P30">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42</v>
-      </c>
-      <c r="B31" s="22">
-        <v>44558</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="P31">
-        <v>8</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>41</v>
-      </c>
-      <c r="B32" s="22">
-        <v>44559</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" t="s">
-        <v>342</v>
-      </c>
-      <c r="P32">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>40</v>
-      </c>
-      <c r="B33" s="22">
-        <v>44560</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="P33">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>39</v>
-      </c>
-      <c r="B34" s="22">
-        <v>44561</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="P34">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>38</v>
-      </c>
-      <c r="B35" s="22">
-        <v>44562</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="P35">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>37</v>
-      </c>
-      <c r="B36" s="22">
-        <v>44563</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="P36">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="33" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="22">
-        <v>44564</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="P37">
-        <v>14</v>
-      </c>
-      <c r="Q37" s="33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="22">
-        <v>44565</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="P38">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="33" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="22">
-        <v>44566</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="P39">
-        <v>16</v>
-      </c>
-      <c r="Q39" s="33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>33</v>
-      </c>
-      <c r="B40" s="22">
-        <v>44567</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="P40">
-        <v>17</v>
-      </c>
-      <c r="Q40" s="33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>32</v>
-      </c>
-      <c r="B41" s="22">
-        <v>44568</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="P41">
-        <v>18</v>
-      </c>
-      <c r="Q41" s="33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>31</v>
-      </c>
-      <c r="B42" s="22">
-        <v>44569</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F42" t="s">
-        <v>343</v>
-      </c>
-      <c r="P42">
-        <v>19</v>
-      </c>
-      <c r="Q42" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>30</v>
-      </c>
-      <c r="B43" s="22">
-        <v>44570</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="P43">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>29</v>
-      </c>
-      <c r="B44" s="22">
-        <v>44571</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>28</v>
-      </c>
-      <c r="B45" s="22">
-        <v>44572</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F45" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>27</v>
-      </c>
-      <c r="B46" s="22">
-        <v>44573</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>26</v>
-      </c>
-      <c r="B47" s="22">
-        <v>44574</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>25</v>
-      </c>
-      <c r="B48" s="22">
-        <v>44575</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>24</v>
-      </c>
-      <c r="B49" s="22">
-        <v>44576</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>23</v>
-      </c>
-      <c r="B50" s="22">
-        <v>44577</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>22</v>
-      </c>
-      <c r="B51" s="22">
-        <v>44578</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>21</v>
-      </c>
-      <c r="B52" s="22">
-        <v>44579</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>20</v>
-      </c>
-      <c r="B53" s="22">
-        <v>44580</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>19</v>
-      </c>
-      <c r="B54" s="22">
-        <v>44581</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>18</v>
-      </c>
-      <c r="B55" s="22">
-        <v>44582</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>17</v>
-      </c>
-      <c r="B56" s="22">
-        <v>44583</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="F56" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>16</v>
-      </c>
-      <c r="B57" s="22">
-        <v>44584</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>15</v>
-      </c>
-      <c r="B58" s="22">
-        <v>44585</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>14</v>
-      </c>
-      <c r="B59" s="22">
-        <v>44586</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>13</v>
-      </c>
-      <c r="B60" s="22">
-        <v>44587</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>12</v>
-      </c>
-      <c r="B61" s="22">
-        <v>44588</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>11</v>
-      </c>
-      <c r="B62" s="22">
-        <v>44589</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>10</v>
-      </c>
-      <c r="B63" s="22">
-        <v>44590</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>9</v>
-      </c>
-      <c r="B64" s="22">
-        <v>44591</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="F64" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>8</v>
-      </c>
-      <c r="B65" s="22">
-        <v>44592</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>7</v>
-      </c>
-      <c r="B66" s="22">
-        <v>44593</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F66" t="s">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>6</v>
-      </c>
-      <c r="B67" s="22">
-        <v>44594</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>5</v>
-      </c>
-      <c r="B68" s="22">
-        <v>44595</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>4</v>
-      </c>
-      <c r="B69" s="22">
-        <v>44596</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>3</v>
-      </c>
-      <c r="B70" s="22">
-        <v>44597</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>2</v>
-      </c>
-      <c r="B71" s="22">
-        <v>44598</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" s="22">
-        <v>44599</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>414</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A10:A72">
-    <sortCondition descending="1" ref="A10"/>
+  <sortState ref="C10:C72">
+    <sortCondition descending="1" ref="C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
